--- a/BLACK_SUNRISE_HSV/45_Degree_GLCM/R_resmat.xlsx
+++ b/BLACK_SUNRISE_HSV/45_Degree_GLCM/R_resmat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_HSV\45_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80FB219-C7E7-45DC-BCB8-FCFF89F2BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,16 +51,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,22 +336,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.046875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.0030679769031384209</v>
+        <v>3.0679769031384209E-3</v>
       </c>
       <c r="B1">
         <v>0.68495096468607519</v>
@@ -361,9 +364,9 @@
         <v>0.99846601154843084</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.032302961075476672</v>
+        <v>3.2302961075476672E-2</v>
       </c>
       <c r="B2">
         <v>0.92859031445189555</v>
@@ -375,9 +378,9 @@
         <v>0.98384851946226171</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.052492581081318379</v>
+        <v>5.2492581081318379E-2</v>
       </c>
       <c r="B3">
         <v>0.88809025192391355</v>
@@ -389,9 +392,9 @@
         <v>0.97375370945934081</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.051072719766816363</v>
+        <v>5.1072719766816363E-2</v>
       </c>
       <c r="B4">
         <v>0.89153413258368253</v>
@@ -403,9 +406,9 @@
         <v>0.97446364011659181</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.046033957139677437</v>
+        <v>4.6033957139677437E-2</v>
       </c>
       <c r="B5">
         <v>0.90029150875535247</v>
@@ -417,9 +420,9 @@
         <v>0.97698302143016125</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.058069513206744292</v>
+        <v>5.8069513206744292E-2</v>
       </c>
       <c r="B6">
         <v>0.87688072539438311</v>
@@ -431,9 +434,9 @@
         <v>0.97096524339662782</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.033300472042773796</v>
+        <v>3.3300472042773796E-2</v>
       </c>
       <c r="B7">
         <v>0.90836271886896403</v>
@@ -445,9 +448,9 @@
         <v>0.98334976397861318</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.037178425489743552</v>
+        <v>3.7178425489743552E-2</v>
       </c>
       <c r="B8">
         <v>0.92403506702119453</v>
@@ -459,9 +462,9 @@
         <v>0.98141078725512831</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.070580835021350763</v>
+        <v>7.0580835021350763E-2</v>
       </c>
       <c r="B9">
         <v>0.84753610541341662</v>
@@ -473,9 +476,9 @@
         <v>0.96470958248932459</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.040579068362540965</v>
+        <v>4.0579068362540965E-2</v>
       </c>
       <c r="B10">
         <v>0.88595146563389404</v>
@@ -487,9 +490,9 @@
         <v>0.97971046581872945</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.058469646256460436</v>
+        <v>5.8469646256460436E-2</v>
       </c>
       <c r="B11">
         <v>0.87880322729330518</v>
@@ -501,9 +504,9 @@
         <v>0.97076517687176977</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.058228192919109287</v>
+        <v>5.8228192919109287E-2</v>
       </c>
       <c r="B12">
         <v>0.87178356889192044</v>
@@ -515,9 +518,9 @@
         <v>0.97088590354044535</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.040015394977388624</v>
+        <v>4.0015394977388624E-2</v>
       </c>
       <c r="B13">
         <v>0.91907425980499768</v>
@@ -529,9 +532,9 @@
         <v>0.97999230251130565</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.046808922261217065</v>
+        <v>4.6808922261217065E-2</v>
       </c>
       <c r="B14">
         <v>0.9035688368319289</v>
@@ -543,9 +546,9 @@
         <v>0.97659553886939154</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.053079645110005638</v>
+        <v>5.3079645110005638E-2</v>
       </c>
       <c r="B15">
         <v>0.88997272166621078</v>
@@ -557,9 +560,9 @@
         <v>0.97346017744499713</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.032694540011818027</v>
+        <v>3.2694540011818027E-2</v>
       </c>
       <c r="B16">
         <v>0.91599392652815959</v>
@@ -571,9 +574,9 @@
         <v>0.98365272999409092</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.038472763425859112</v>
+        <v>3.8472763425859112E-2</v>
       </c>
       <c r="B17">
         <v>0.91989477192062452</v>
@@ -585,9 +588,9 @@
         <v>0.98076361828707037</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.042126753189627761</v>
+        <v>4.2126753189627761E-2</v>
       </c>
       <c r="B18">
         <v>0.90444310774758652</v>
@@ -599,9 +602,9 @@
         <v>0.97893662340518606</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.046687679792988587</v>
+        <v>4.6687679792988587E-2</v>
       </c>
       <c r="B19">
         <v>0.88844958861951684</v>
@@ -613,9 +616,9 @@
         <v>0.97665616010350575</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.027049974528273617</v>
+        <v>2.7049974528273617E-2</v>
       </c>
       <c r="B20">
         <v>0.91659134768778416</v>
@@ -627,9 +630,9 @@
         <v>0.98647501273586313</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.057052963898780826</v>
+        <v>5.7052963898780826E-2</v>
       </c>
       <c r="B21">
         <v>0.86388257957744929</v>
@@ -641,9 +644,9 @@
         <v>0.97147351805060966</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.0076436258755010669</v>
+        <v>7.6436258755010669E-3</v>
       </c>
       <c r="B22">
         <v>0.56104707841702273</v>
@@ -655,9 +658,9 @@
         <v>0.99617818706224948</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.03471398624261967</v>
+        <v>3.471398624261967E-2</v>
       </c>
       <c r="B23">
         <v>0.81214200742158915</v>
@@ -669,10 +672,13 @@
         <v>0.98264300687869022</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -680,9 +686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.039634687751046463</v>
+        <v>3.9634687751046463E-2</v>
       </c>
       <c r="B25">
         <v>0.87270881084380214</v>
@@ -694,9 +700,9 @@
         <v>0.98018265612447675</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.049799396634839677</v>
+        <v>4.9799396634839677E-2</v>
       </c>
       <c r="B26">
         <v>0.83924781400588377</v>
@@ -708,9 +714,9 @@
         <v>0.97510030168258022</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.033545063936647808</v>
+        <v>3.3545063936647808E-2</v>
       </c>
       <c r="B27">
         <v>0.83462014181250166</v>
@@ -722,9 +728,9 @@
         <v>0.98322746803167616</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.003801248981808308</v>
+        <v>3.801248981808308E-3</v>
       </c>
       <c r="B28">
         <v>0.8697224700734203</v>
@@ -736,9 +742,9 @@
         <v>0.99985495234148358</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.0045584263852444891</v>
+        <v>4.5584263852444891E-3</v>
       </c>
       <c r="B29">
         <v>0.61234453198276062</v>
@@ -750,9 +756,9 @@
         <v>0.99772078680737764</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.040687231959113779</v>
+        <v>4.0687231959113779E-2</v>
       </c>
       <c r="B30">
         <v>0.78809316417061925</v>
@@ -764,9 +770,9 @@
         <v>0.97965638402044308</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.039696479705022207</v>
+        <v>3.9696479705022207E-2</v>
       </c>
       <c r="B31">
         <v>0.83381115386789206</v>
@@ -778,9 +784,9 @@
         <v>0.98282891898135039</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.0040791500799440576</v>
+        <v>4.0791500799440576E-3</v>
       </c>
       <c r="B32">
         <v>0.52256963328328587</v>
@@ -792,9 +798,9 @@
         <v>0.9979604249600279</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.030596965186287794</v>
+        <v>3.0596965186287794E-2</v>
       </c>
       <c r="B33">
         <v>0.76899631715732231</v>
@@ -806,9 +812,9 @@
         <v>0.98470151740685607</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.04149509027557808</v>
+        <v>4.149509027557808E-2</v>
       </c>
       <c r="B34">
         <v>0.90675294854017863</v>
@@ -820,9 +826,9 @@
         <v>0.97925245486221102</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.056308116511689307</v>
+        <v>5.6308116511689307E-2</v>
       </c>
       <c r="B35">
         <v>0.87436694416149374</v>
@@ -834,9 +840,9 @@
         <v>0.97184594174415528</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.035080368506229934</v>
+        <v>3.5080368506229934E-2</v>
       </c>
       <c r="B36">
         <v>0.82599774517148339</v>
@@ -848,9 +854,9 @@
         <v>0.98245981574688501</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.023704542879800613</v>
+        <v>2.3704542879800613E-2</v>
       </c>
       <c r="B37">
         <v>0.80384697687886653</v>
@@ -862,9 +868,9 @@
         <v>0.98814772856009969</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.031791041438379138</v>
+        <v>3.1791041438379138E-2</v>
       </c>
       <c r="B38">
         <v>0.79097666962689983</v>
@@ -876,9 +882,9 @@
         <v>0.98769707270165719</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.051350403831270632</v>
+        <v>5.1350403831270632E-2</v>
       </c>
       <c r="B39">
         <v>0.80954494339776462</v>
@@ -890,9 +896,9 @@
         <v>0.97432479808436467</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.066034912718204483</v>
+        <v>6.6034912718204483E-2</v>
       </c>
       <c r="B40">
         <v>0.80483198503251763</v>
@@ -904,10 +910,13 @@
         <v>0.97169576059850382</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>1</v>
       </c>
@@ -915,9 +924,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.068743150789596627</v>
+        <v>6.8743150789596627E-2</v>
       </c>
       <c r="B42">
         <v>0.64187766108014455</v>
@@ -929,10 +938,13 @@
         <v>0.96562842460520171</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -940,9 +952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.023544884496465662</v>
+        <v>2.3544884496465662E-2</v>
       </c>
       <c r="B44">
         <v>0.60773442956596158</v>
@@ -954,9 +966,9 @@
         <v>0.98921134179815595</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.023291512694080342</v>
+        <v>2.3291512694080342E-2</v>
       </c>
       <c r="B45">
         <v>0.66059160244481308</v>
@@ -968,9 +980,9 @@
         <v>0.98835424365295987</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.035673832136322331</v>
+        <v>3.5673832136322331E-2</v>
       </c>
       <c r="B46">
         <v>0.68547505711001055</v>
@@ -982,9 +994,9 @@
         <v>0.98216308393183882</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.040853296566515387</v>
+        <v>4.0853296566515387E-2</v>
       </c>
       <c r="B47">
         <v>0.66293242796120411</v>
@@ -996,9 +1008,9 @@
         <v>0.97957335171674231</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.019889139965621801</v>
+        <v>1.9889139965621801E-2</v>
       </c>
       <c r="B48">
         <v>0.71056893667498122</v>
@@ -1010,9 +1022,9 @@
         <v>0.9900554300171891</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.017526984697867572</v>
+        <v>1.7526984697867572E-2</v>
       </c>
       <c r="B49">
         <v>0.60004885661870377</v>
@@ -1024,9 +1036,9 @@
         <v>0.99123650765106608</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.014804204302590926</v>
+        <v>1.4804204302590926E-2</v>
       </c>
       <c r="B50">
         <v>0.60401200194976445</v>
@@ -1038,9 +1050,9 @@
         <v>0.99259789784870456</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.016307733983475552</v>
+        <v>1.6307733983475552E-2</v>
       </c>
       <c r="B51">
         <v>0.65087470853501794</v>
@@ -1052,9 +1064,9 @@
         <v>0.99184613300826219</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.025372669291900192</v>
+        <v>2.5372669291900192E-2</v>
       </c>
       <c r="B52">
         <v>0.65655466533748674</v>
@@ -1066,9 +1078,9 @@
         <v>0.9874910375428414</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.026405578374247778</v>
+        <v>2.6405578374247778E-2</v>
       </c>
       <c r="B53">
         <v>0.65543607689242589</v>
@@ -1080,10 +1092,13 @@
         <v>0.98679721081287619</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -1091,10 +1106,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>1</v>
       </c>
@@ -1102,10 +1120,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -1113,9 +1134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.023165029245482836</v>
+        <v>2.3165029245482836E-2</v>
       </c>
       <c r="B57">
         <v>0.69202142887196427</v>
@@ -1127,9 +1148,9 @@
         <v>0.9884174853772586</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.031430996338791414</v>
+        <v>3.1430996338791414E-2</v>
       </c>
       <c r="B58">
         <v>0.68612460043223522</v>
@@ -1141,9 +1162,9 @@
         <v>0.98428450183060434</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.032725327303743931</v>
+        <v>3.2725327303743931E-2</v>
       </c>
       <c r="B59">
         <v>0.70066794369410279</v>
@@ -1155,9 +1176,9 @@
         <v>0.98363733634812789</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.028759629646122279</v>
+        <v>2.8759629646122279E-2</v>
       </c>
       <c r="B60">
         <v>0.65477881836183349</v>
@@ -1169,9 +1190,9 @@
         <v>0.98562018517693883</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.037346312657147468</v>
+        <v>3.7346312657147468E-2</v>
       </c>
       <c r="B61">
         <v>0.88344566388431855</v>
@@ -1183,9 +1204,9 @@
         <v>0.98132684367142631</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.025949401069851163</v>
+        <v>2.5949401069851163E-2</v>
       </c>
       <c r="B62">
         <v>0.90320963139772281</v>
@@ -1197,9 +1218,9 @@
         <v>0.98702529946507445</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.033889923448842972</v>
+        <v>3.3889923448842972E-2</v>
       </c>
       <c r="B63">
         <v>0.87624009951317083</v>
@@ -1211,9 +1232,9 @@
         <v>0.9830550382755785</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.053851820040783475</v>
+        <v>5.3851820040783475E-2</v>
       </c>
       <c r="B64">
         <v>0.85164028742141296</v>
@@ -1225,9 +1246,9 @@
         <v>0.9730740899796082</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.040992863014828657</v>
+        <v>4.0992863014828657E-2</v>
       </c>
       <c r="B65">
         <v>0.86661090261884088</v>
@@ -1239,9 +1260,9 @@
         <v>0.97950356849258569</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.036867228250029374</v>
+        <v>3.6867228250029374E-2</v>
       </c>
       <c r="B66">
         <v>0.88488727409715162</v>
@@ -1253,9 +1274,9 @@
         <v>0.98156638587498524</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.04772305975497209</v>
+        <v>4.772305975497209E-2</v>
       </c>
       <c r="B67">
         <v>0.86494722523290024</v>
@@ -1267,9 +1288,9 @@
         <v>0.97613847012251398</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.034178366815018811</v>
+        <v>3.4178366815018811E-2</v>
       </c>
       <c r="B68">
         <v>0.89741979316038778</v>
@@ -1281,9 +1302,9 @@
         <v>0.98291081659249058</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.038018527292629931</v>
+        <v>3.8018527292629931E-2</v>
       </c>
       <c r="B69">
         <v>0.88869192356897841</v>
@@ -1295,9 +1316,9 @@
         <v>0.98099073635368506</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.032994988015819578</v>
+        <v>3.2994988015819578E-2</v>
       </c>
       <c r="B70">
         <v>0.89573460431984775</v>
@@ -1309,9 +1330,9 @@
         <v>0.98350250599209021</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.049757162056072279</v>
+        <v>4.9757162056072279E-2</v>
       </c>
       <c r="B71">
         <v>0.87032908051232216</v>
@@ -1323,9 +1344,9 @@
         <v>0.9751214189719638</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.049354871482271662</v>
+        <v>4.9354871482271662E-2</v>
       </c>
       <c r="B72">
         <v>0.85679260143025937</v>
@@ -1337,9 +1358,9 @@
         <v>0.9753225642588641</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.052629083021966644</v>
+        <v>5.2629083021966644E-2</v>
       </c>
       <c r="B73">
         <v>0.8599170183775362</v>
@@ -1351,9 +1372,9 @@
         <v>0.97368545848901666</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.040392816321683567</v>
+        <v>4.0392816321683567E-2</v>
       </c>
       <c r="B74">
         <v>0.88196486983725697</v>
@@ -1365,9 +1386,9 @@
         <v>0.97980359183915822</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.039578363692935034</v>
+        <v>3.9578363692935034E-2</v>
       </c>
       <c r="B75">
         <v>0.8711594261033776</v>
@@ -1379,9 +1400,9 @@
         <v>0.9802108181535325</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.053605517368427114</v>
+        <v>5.3605517368427114E-2</v>
       </c>
       <c r="B76">
         <v>0.86163588771148292</v>
@@ -1393,9 +1414,9 @@
         <v>0.97319724131578633</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.047221001482345065</v>
+        <v>4.7221001482345065E-2</v>
       </c>
       <c r="B77">
         <v>0.86850342953921711</v>
@@ -1407,9 +1428,9 @@
         <v>0.97638949925882756</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.032706420668882852</v>
+        <v>3.2706420668882852E-2</v>
       </c>
       <c r="B78">
         <v>0.89215810535181139</v>
@@ -1421,9 +1442,9 @@
         <v>0.98364678966555852</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.040658336341364135</v>
+        <v>4.0658336341364135E-2</v>
       </c>
       <c r="B79">
         <v>0.86319032942079288</v>
@@ -1435,9 +1456,9 @@
         <v>0.97967083182931791</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.028725514372406696</v>
+        <v>2.8725514372406696E-2</v>
       </c>
       <c r="B80">
         <v>0.9048096557303007</v>
@@ -1449,9 +1470,9 @@
         <v>0.98563724281379672</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.037346312657147468</v>
+        <v>3.7346312657147468E-2</v>
       </c>
       <c r="B81">
         <v>0.88344566388431855</v>
@@ -1463,9 +1484,9 @@
         <v>0.98132684367142631</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.025949401069851163</v>
+        <v>2.5949401069851163E-2</v>
       </c>
       <c r="B82">
         <v>0.90320963139772281</v>
@@ -1477,9 +1498,9 @@
         <v>0.98702529946507445</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.033889923448842972</v>
+        <v>3.3889923448842972E-2</v>
       </c>
       <c r="B83">
         <v>0.87624009951317083</v>
@@ -1491,9 +1512,9 @@
         <v>0.9830550382755785</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.053851820040783475</v>
+        <v>5.3851820040783475E-2</v>
       </c>
       <c r="B84">
         <v>0.85164028742141296</v>
@@ -1505,9 +1526,9 @@
         <v>0.9730740899796082</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.040992863014828657</v>
+        <v>4.0992863014828657E-2</v>
       </c>
       <c r="B85">
         <v>0.86661090261884088</v>
@@ -1519,9 +1540,9 @@
         <v>0.97950356849258569</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.036867228250029374</v>
+        <v>3.6867228250029374E-2</v>
       </c>
       <c r="B86">
         <v>0.88488727409715162</v>
@@ -1533,9 +1554,9 @@
         <v>0.98156638587498524</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.04772305975497209</v>
+        <v>4.772305975497209E-2</v>
       </c>
       <c r="B87">
         <v>0.86494722523290024</v>
@@ -1547,9 +1568,9 @@
         <v>0.97613847012251398</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.034178366815018811</v>
+        <v>3.4178366815018811E-2</v>
       </c>
       <c r="B88">
         <v>0.89741979316038778</v>
@@ -1561,9 +1582,9 @@
         <v>0.98291081659249058</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.038018527292629931</v>
+        <v>3.8018527292629931E-2</v>
       </c>
       <c r="B89">
         <v>0.88869192356897841</v>
@@ -1575,9 +1596,9 @@
         <v>0.98099073635368506</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.032994988015819578</v>
+        <v>3.2994988015819578E-2</v>
       </c>
       <c r="B90">
         <v>0.89573460431984775</v>
@@ -1589,9 +1610,9 @@
         <v>0.98350250599209021</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.049757162056072279</v>
+        <v>4.9757162056072279E-2</v>
       </c>
       <c r="B91">
         <v>0.87032908051232216</v>
@@ -1603,9 +1624,9 @@
         <v>0.9751214189719638</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.049354871482271662</v>
+        <v>4.9354871482271662E-2</v>
       </c>
       <c r="B92">
         <v>0.85679260143025937</v>
@@ -1617,9 +1638,9 @@
         <v>0.9753225642588641</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.052629083021966644</v>
+        <v>5.2629083021966644E-2</v>
       </c>
       <c r="B93">
         <v>0.8599170183775362</v>
@@ -1631,9 +1652,9 @@
         <v>0.97368545848901666</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.040392816321683567</v>
+        <v>4.0392816321683567E-2</v>
       </c>
       <c r="B94">
         <v>0.88196486983725697</v>
@@ -1645,9 +1666,9 @@
         <v>0.97980359183915822</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.039578363692935034</v>
+        <v>3.9578363692935034E-2</v>
       </c>
       <c r="B95">
         <v>0.8711594261033776</v>
@@ -1659,9 +1680,9 @@
         <v>0.9802108181535325</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.053605517368427114</v>
+        <v>5.3605517368427114E-2</v>
       </c>
       <c r="B96">
         <v>0.86163588771148292</v>
@@ -1673,9 +1694,9 @@
         <v>0.97319724131578633</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.047221001482345065</v>
+        <v>4.7221001482345065E-2</v>
       </c>
       <c r="B97">
         <v>0.86850342953921711</v>
@@ -1687,9 +1708,9 @@
         <v>0.97638949925882756</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.032706420668882852</v>
+        <v>3.2706420668882852E-2</v>
       </c>
       <c r="B98">
         <v>0.89215810535181139</v>
@@ -1701,9 +1722,9 @@
         <v>0.98364678966555852</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.040658336341364135</v>
+        <v>4.0658336341364135E-2</v>
       </c>
       <c r="B99">
         <v>0.86319032942079288</v>
@@ -1715,9 +1736,9 @@
         <v>0.97967083182931791</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.028725514372406696</v>
+        <v>2.8725514372406696E-2</v>
       </c>
       <c r="B100">
         <v>0.9048096557303007</v>
@@ -1729,9 +1750,9 @@
         <v>0.98563724281379672</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.0034407302252457772</v>
+        <v>3.4407302252457772E-3</v>
       </c>
       <c r="B101">
         <v>0.75631800456948428</v>
@@ -1743,7 +1764,7 @@
         <v>0.99979003989968418</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.10875756437821724</v>
       </c>
@@ -1757,9 +1778,9 @@
         <v>0.94685583684917385</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.005136106831022085</v>
+        <v>5.136106831022085E-3</v>
       </c>
       <c r="B103">
         <v>0.70582993434725294</v>
@@ -1771,9 +1792,9 @@
         <v>0.99990828380658892</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.048408956641606909</v>
+        <v>4.8408956641606909E-2</v>
       </c>
       <c r="B104">
         <v>0.68170893842972324</v>
@@ -1785,9 +1806,9 @@
         <v>0.97579552167919648</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.013310998047396586</v>
+        <v>1.3310998047396586E-2</v>
       </c>
       <c r="B105">
         <v>0.69133409629168507</v>
@@ -1799,9 +1820,9 @@
         <v>0.9942908893536293</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.059331975262281629</v>
+        <v>5.9331975262281629E-2</v>
       </c>
       <c r="B106">
         <v>0.75612503408382226</v>
@@ -1813,9 +1834,9 @@
         <v>0.97151890245957695</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.0038769007298598071</v>
+        <v>3.8769007298598071E-3</v>
       </c>
       <c r="B107">
         <v>0.62173200515347771</v>
@@ -1827,9 +1848,9 @@
         <v>0.99926988446017473</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.047238095238095232</v>
+        <v>4.7238095238095232E-2</v>
       </c>
       <c r="B108">
         <v>0.83541032207266219</v>
@@ -1841,9 +1862,9 @@
         <v>0.97740195208518188</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.070070067318502544</v>
+        <v>7.0070067318502544E-2</v>
       </c>
       <c r="B109">
         <v>0.83322686407275204</v>
@@ -1855,9 +1876,9 @@
         <v>0.96599781102623372</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.014099245071238482</v>
+        <v>1.4099245071238482E-2</v>
       </c>
       <c r="B110">
         <v>0.82041396318603799</v>
@@ -1869,9 +1890,9 @@
         <v>0.99295037746438086</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.020122997113333055</v>
+        <v>2.0122997113333055E-2</v>
       </c>
       <c r="B111">
         <v>0.83983065877285801</v>
@@ -1883,9 +1904,9 @@
         <v>0.9899385014433334</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.037436168339496388</v>
+        <v>3.7436168339496388E-2</v>
       </c>
       <c r="B112">
         <v>0.7314604796898373</v>
@@ -1897,9 +1918,9 @@
         <v>0.98234084105716424</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.0026402112168973516</v>
+        <v>2.6402112168973516E-3</v>
       </c>
       <c r="B113">
         <v>0.63731189445167213</v>
@@ -1911,9 +1932,9 @@
         <v>0.99983042121630616</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.048698163181396588</v>
+        <v>4.8698163181396588E-2</v>
       </c>
       <c r="B114">
         <v>0.82630211245539442</v>
@@ -1925,9 +1946,9 @@
         <v>0.97760869357352531</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.055879811928135792</v>
+        <v>5.5879811928135792E-2</v>
       </c>
       <c r="B115">
         <v>0.8045435090913674</v>
@@ -1939,9 +1960,9 @@
         <v>0.9738722999699797</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.024011469640368686</v>
+        <v>2.4011469640368686E-2</v>
       </c>
       <c r="B116">
         <v>0.83907023774319722</v>
@@ -1953,9 +1974,9 @@
         <v>0.98916224041132494</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.021429286388080886</v>
+        <v>2.1429286388080886E-2</v>
       </c>
       <c r="B117">
         <v>0.79235389919025456</v>
@@ -1967,9 +1988,9 @@
         <v>0.99014525810688259</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.062824588074507443</v>
+        <v>6.2824588074507443E-2</v>
       </c>
       <c r="B118">
         <v>0.81412703985409651</v>
@@ -1981,9 +2002,9 @@
         <v>0.97036668370454693</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.052092699984796161</v>
+        <v>5.2092699984796161E-2</v>
       </c>
       <c r="B119">
         <v>0.77894720035245413</v>
@@ -1995,9 +2016,9 @@
         <v>0.97489543481431151</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.073975441762048136</v>
+        <v>7.3975441762048136E-2</v>
       </c>
       <c r="B120">
         <v>0.77168463188686853</v>
@@ -2009,9 +2030,9 @@
         <v>0.96437245608432232</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.086366047745358082</v>
+        <v>8.6366047745358082E-2</v>
       </c>
       <c r="B121">
         <v>0.89951732764501202</v>
@@ -2023,9 +2044,9 @@
         <v>0.96831799032610388</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.087439472516223971</v>
+        <v>8.7439472516223971E-2</v>
       </c>
       <c r="B122">
         <v>0.72165744429273382</v>
@@ -2037,9 +2058,9 @@
         <v>0.95675258803725016</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.03521282601332279</v>
+        <v>3.521282601332279E-2</v>
       </c>
       <c r="B123">
         <v>0.68354452501723684</v>
@@ -2051,9 +2072,9 @@
         <v>0.98239358699333845</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0.089633890393139987</v>
+        <v>8.9633890393139987E-2</v>
       </c>
       <c r="B124">
         <v>0.76993440009214009</v>
@@ -2065,9 +2086,9 @@
         <v>0.95518305480343013</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.044967249516502585</v>
+        <v>4.4967249516502585E-2</v>
       </c>
       <c r="B125">
         <v>0.90395112841397907</v>
@@ -2079,9 +2100,9 @@
         <v>0.97751637524174861</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.027205397802716604</v>
+        <v>2.7205397802716604E-2</v>
       </c>
       <c r="B126">
         <v>0.93333083273614725</v>
@@ -2093,9 +2114,9 @@
         <v>0.98872097254871094</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.053030711801553006</v>
+        <v>5.3030711801553006E-2</v>
       </c>
       <c r="B127">
         <v>0.89586896005259409</v>
@@ -2107,9 +2128,9 @@
         <v>0.97570611145720409</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.068664780853701174</v>
+        <v>6.8664780853701174E-2</v>
       </c>
       <c r="B128">
         <v>0.86139174695106047</v>
@@ -2121,9 +2142,9 @@
         <v>0.96566760957314934</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.095355638279072147</v>
+        <v>9.5355638279072147E-2</v>
       </c>
       <c r="B129">
         <v>0.86812424660725462</v>
@@ -2135,9 +2156,9 @@
         <v>0.96107632099511464</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.088382042034572811</v>
+        <v>8.8382042034572811E-2</v>
       </c>
       <c r="B130">
         <v>0.89323128226745563</v>
@@ -2149,9 +2170,9 @@
         <v>0.96545910541806568</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.079347456667044305</v>
+        <v>7.9347456667044305E-2</v>
       </c>
       <c r="B131">
         <v>0.83966560235390431</v>
@@ -2163,9 +2184,9 @@
         <v>0.96075450322873002</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.040883128782225109</v>
+        <v>4.0883128782225109E-2</v>
       </c>
       <c r="B132">
         <v>0.93093431556614081</v>
@@ -2177,9 +2198,9 @@
         <v>0.9865410050466612</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.052974154648989816</v>
+        <v>5.2974154648989816E-2</v>
       </c>
       <c r="B133">
         <v>0.91830550049670123</v>
@@ -2191,9 +2212,9 @@
         <v>0.98284263601424504</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.013725612416630305</v>
+        <v>1.3725612416630305E-2</v>
       </c>
       <c r="B134">
         <v>0.89384125968168926</v>
@@ -2205,9 +2226,9 @@
         <v>0.99313719379168486</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.060140858422229528</v>
+        <v>6.0140858422229528E-2</v>
       </c>
       <c r="B135">
         <v>0.84528052330713677</v>
@@ -2219,9 +2240,9 @@
         <v>0.97012075968909495</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.04343604216337274</v>
+        <v>4.343604216337274E-2</v>
       </c>
       <c r="B136">
         <v>0.74158283306444284</v>
@@ -2233,9 +2254,9 @@
         <v>0.97828197891831359</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.042197971040339122</v>
+        <v>4.2197971040339122E-2</v>
       </c>
       <c r="B137">
         <v>0.90631822141673835</v>
@@ -2247,9 +2268,9 @@
         <v>0.97890101447983058</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.056930511581403102</v>
+        <v>5.6930511581403102E-2</v>
       </c>
       <c r="B138">
         <v>0.87315760099649209</v>
@@ -2261,9 +2282,9 @@
         <v>0.97200716547242139</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.051782604146793282</v>
+        <v>5.1782604146793282E-2</v>
       </c>
       <c r="B139">
         <v>0.89269440959710578</v>
@@ -2275,9 +2296,9 @@
         <v>0.97439949042077201</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.047553239017125833</v>
+        <v>4.7553239017125833E-2</v>
       </c>
       <c r="B140">
         <v>0.89262493278295485</v>
@@ -2289,9 +2310,9 @@
         <v>0.97678629932985839</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.021351371561031444</v>
+        <v>2.1351371561031444E-2</v>
       </c>
       <c r="B141">
         <v>0.54363889694780221</v>
@@ -2303,9 +2324,9 @@
         <v>0.9893243142194843</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.0056802157951140854</v>
+        <v>5.6802157951140854E-3</v>
       </c>
       <c r="B142">
         <v>0.50872186627477056</v>
@@ -2317,9 +2338,9 @@
         <v>0.99733145430556147</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.0044736684934857359</v>
+        <v>4.4736684934857359E-3</v>
       </c>
       <c r="B143">
         <v>0.95525363375909356</v>
@@ -2331,9 +2352,9 @@
         <v>0.99887232283112126</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.00078960954820161359</v>
+        <v>7.8960954820161359E-4</v>
       </c>
       <c r="B144">
         <v>0.39960493527016355</v>
@@ -2345,9 +2366,9 @@
         <v>0.99960519522589908</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.0012191573959906346</v>
+        <v>1.2191573959906346E-3</v>
       </c>
       <c r="B145">
         <v>0.57644551608618433</v>
@@ -2359,9 +2380,9 @@
         <v>0.99939781013470785</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.0025451890740378741</v>
+        <v>2.5451890740378741E-3</v>
       </c>
       <c r="B146">
         <v>0.52065713840506189</v>
@@ -2373,9 +2394,9 @@
         <v>0.998727405462981</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.0071168360672235085</v>
+        <v>7.1168360672235085E-3</v>
       </c>
       <c r="B147">
         <v>0.47583518400833241</v>
@@ -2387,9 +2408,9 @@
         <v>0.99648988628358648</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.0026963662648967876</v>
+        <v>2.6963662648967876E-3</v>
       </c>
       <c r="B148">
         <v>0.54818718039725423</v>
@@ -2401,9 +2422,9 @@
         <v>0.99968884587408124</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.00087826377725941417</v>
+        <v>8.7826377725941417E-4</v>
       </c>
       <c r="B149">
         <v>0.43770485452567148</v>
@@ -2415,9 +2436,9 @@
         <v>0.99956086811137024</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.00068637544736971118</v>
+        <v>6.8637544736971118E-4</v>
       </c>
       <c r="B150">
         <v>0.51577393596286381</v>
@@ -2429,9 +2450,9 @@
         <v>0.99970112497690111</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.0022432595935318262</v>
+        <v>2.2432595935318262E-3</v>
       </c>
       <c r="B151">
         <v>0.42342569970448685</v>
@@ -2443,9 +2464,9 @@
         <v>0.99888709035714485</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.001615348549095302</v>
+        <v>1.615348549095302E-3</v>
       </c>
       <c r="B152">
         <v>0.55989348335155109</v>
@@ -2457,9 +2478,9 @@
         <v>0.99921514138292533</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.00016099199690895367</v>
+        <v>1.6099199690895367E-4</v>
       </c>
       <c r="B153">
         <v>0.63408679864872353</v>
@@ -2471,9 +2492,9 @@
         <v>0.9999195040015455</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.013111171810980607</v>
+        <v>1.3111171810980607E-2</v>
       </c>
       <c r="B154">
         <v>0.53400414792013617</v>
@@ -2485,9 +2506,9 @@
         <v>0.99358813270859137</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.0053060807358201317</v>
+        <v>5.3060807358201317E-3</v>
       </c>
       <c r="B155">
         <v>0.50649213406669435</v>
@@ -2499,9 +2520,9 @@
         <v>0.9979275518894325</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.0014188645930223393</v>
+        <v>1.4188645930223393E-3</v>
       </c>
       <c r="B156">
         <v>0.44373410506007194</v>
@@ -2513,9 +2534,9 @@
         <v>0.99929056770348879</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.0018323140274359787</v>
+        <v>1.8323140274359787E-3</v>
       </c>
       <c r="B157">
         <v>0.47421101870458676</v>
@@ -2527,9 +2548,9 @@
         <v>0.99908384298628194</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.0062905605849404387</v>
+        <v>6.2905605849404387E-3</v>
       </c>
       <c r="B158">
         <v>0.48567610711772313</v>
@@ -2541,9 +2562,9 @@
         <v>0.99686152767353087</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.0070223158295805123</v>
+        <v>7.0223158295805123E-3</v>
       </c>
       <c r="B159">
         <v>0.45936053056001308</v>
@@ -2555,9 +2576,9 @@
         <v>0.99654396576510784</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.0034148005001705126</v>
+        <v>3.4148005001705126E-3</v>
       </c>
       <c r="B160">
         <v>0.46636447852472801</v>
@@ -2569,9 +2590,9 @@
         <v>0.99836800424387084</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.01661275508166607</v>
+        <v>1.661275508166607E-2</v>
       </c>
       <c r="B161">
         <v>0.95693788181174377</v>
@@ -2583,9 +2604,9 @@
         <v>0.99169362245916703</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.043711235070969218</v>
+        <v>4.3711235070969218E-2</v>
       </c>
       <c r="B162">
         <v>0.90346145508029574</v>
@@ -2597,9 +2618,9 @@
         <v>0.97814438246451541</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.073327824105376513</v>
+        <v>7.3327824105376513E-2</v>
       </c>
       <c r="B163">
         <v>0.84516341194334832</v>
@@ -2611,9 +2632,9 @@
         <v>0.96338700656933707</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.015670907119901017</v>
+        <v>1.5670907119901017E-2</v>
       </c>
       <c r="B164">
         <v>0.87147469748246609</v>
@@ -2625,9 +2646,9 @@
         <v>0.99216454644004959</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.096260534451361554</v>
+        <v>9.6260534451361554E-2</v>
       </c>
       <c r="B165">
         <v>0.80594693022978547</v>
@@ -2639,9 +2660,9 @@
         <v>0.95186973277431919</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.03875657986958686</v>
+        <v>3.875657986958686E-2</v>
       </c>
       <c r="B166">
         <v>0.92040997573983319</v>
@@ -2653,9 +2674,9 @@
         <v>0.9806217100652066</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.099582892147826799</v>
+        <v>9.9582892147826799E-2</v>
       </c>
       <c r="B167">
         <v>0.80007517001987682</v>
@@ -2667,9 +2688,9 @@
         <v>0.95021426968973399</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.034889222698436764</v>
+        <v>3.4889222698436764E-2</v>
       </c>
       <c r="B168">
         <v>0.89138295371032505</v>
@@ -2681,9 +2702,9 @@
         <v>0.98255538865078162</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.094373314690901822</v>
+        <v>9.4373314690901822E-2</v>
       </c>
       <c r="B169">
         <v>0.79623410370602166</v>
@@ -2695,7 +2716,7 @@
         <v>0.9528133426545492</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.10637027560104485</v>
       </c>
@@ -2709,7 +2730,7 @@
         <v>0.94686905840752023</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.10117117418290821</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>0.94942431817703432</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.10954734578760716</v>
       </c>
@@ -2737,9 +2758,9 @@
         <v>0.94523696496554011</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.099817258067755099</v>
+        <v>9.9817258067755099E-2</v>
       </c>
       <c r="B173">
         <v>0.78674448698465649</v>
@@ -2751,9 +2772,9 @@
         <v>0.95009137096612251</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.056755587599134821</v>
+        <v>5.6755587599134821E-2</v>
       </c>
       <c r="B174">
         <v>0.88379632052906476</v>
@@ -2765,9 +2786,9 @@
         <v>0.97162769938545002</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.052100072666874289</v>
+        <v>5.2100072666874289E-2</v>
       </c>
       <c r="B175">
         <v>0.89579863815327754</v>
@@ -2779,9 +2800,9 @@
         <v>0.97394996366656283</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.095819676844344781</v>
+        <v>9.5819676844344781E-2</v>
       </c>
       <c r="B176">
         <v>0.79489272475863693</v>
@@ -2793,9 +2814,9 @@
         <v>0.95213009283217986</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.093868868564098207</v>
+        <v>9.3868868564098207E-2</v>
       </c>
       <c r="B177">
         <v>0.79497103229468247</v>
@@ -2807,9 +2828,9 @@
         <v>0.95306556571795076</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.086768400290667486</v>
+        <v>8.6768400290667486E-2</v>
       </c>
       <c r="B178">
         <v>0.80776728017419475</v>
@@ -2821,9 +2842,9 @@
         <v>0.95666459047025854</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.088555714545001746</v>
+        <v>8.8555714545001746E-2</v>
       </c>
       <c r="B179">
         <v>0.82312063920424994</v>
@@ -2835,9 +2856,9 @@
         <v>0.95572777067249726</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.022055553908635461</v>
+        <v>2.2055553908635461E-2</v>
       </c>
       <c r="B180">
         <v>0.94372475111356791</v>
@@ -2849,9 +2870,9 @@
         <v>0.98897222304568233</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.01661275508166607</v>
+        <v>1.661275508166607E-2</v>
       </c>
       <c r="B181">
         <v>0.95693788181174377</v>
@@ -2863,9 +2884,9 @@
         <v>0.99169362245916703</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.043711235070969218</v>
+        <v>4.3711235070969218E-2</v>
       </c>
       <c r="B182">
         <v>0.90346145508029574</v>
@@ -2877,9 +2898,9 @@
         <v>0.97814438246451541</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.073327824105376513</v>
+        <v>7.3327824105376513E-2</v>
       </c>
       <c r="B183">
         <v>0.84516341194334832</v>
@@ -2891,9 +2912,9 @@
         <v>0.96338700656933707</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.015670907119901017</v>
+        <v>1.5670907119901017E-2</v>
       </c>
       <c r="B184">
         <v>0.87147469748246609</v>
@@ -2905,9 +2926,9 @@
         <v>0.99216454644004959</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.096260534451361554</v>
+        <v>9.6260534451361554E-2</v>
       </c>
       <c r="B185">
         <v>0.80594693022978547</v>
@@ -2919,9 +2940,9 @@
         <v>0.95186973277431919</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.03875657986958686</v>
+        <v>3.875657986958686E-2</v>
       </c>
       <c r="B186">
         <v>0.92040997573983319</v>
@@ -2933,9 +2954,9 @@
         <v>0.9806217100652066</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.099582892147826799</v>
+        <v>9.9582892147826799E-2</v>
       </c>
       <c r="B187">
         <v>0.80007517001987682</v>
@@ -2947,9 +2968,9 @@
         <v>0.95021426968973399</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.034889222698436764</v>
+        <v>3.4889222698436764E-2</v>
       </c>
       <c r="B188">
         <v>0.89138295371032505</v>
@@ -2961,9 +2982,9 @@
         <v>0.98255538865078162</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.094373314690901822</v>
+        <v>9.4373314690901822E-2</v>
       </c>
       <c r="B189">
         <v>0.79623410370602166</v>
@@ -2975,7 +2996,7 @@
         <v>0.9528133426545492</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.10637027560104485</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>0.94686905840752023</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.10117117418290821</v>
       </c>
@@ -3003,7 +3024,7 @@
         <v>0.94942431817703432</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.10954734578760716</v>
       </c>
@@ -3017,9 +3038,9 @@
         <v>0.94523696496554011</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.099817258067755099</v>
+        <v>9.9817258067755099E-2</v>
       </c>
       <c r="B193">
         <v>0.78674448698465649</v>
@@ -3031,9 +3052,9 @@
         <v>0.95009137096612251</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.056755587599134821</v>
+        <v>5.6755587599134821E-2</v>
       </c>
       <c r="B194">
         <v>0.88379632052906476</v>
@@ -3045,9 +3066,9 @@
         <v>0.97162769938545002</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.052100072666874289</v>
+        <v>5.2100072666874289E-2</v>
       </c>
       <c r="B195">
         <v>0.89579863815327754</v>
@@ -3059,9 +3080,9 @@
         <v>0.97394996366656283</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.095819676844344781</v>
+        <v>9.5819676844344781E-2</v>
       </c>
       <c r="B196">
         <v>0.79489272475863693</v>
@@ -3073,9 +3094,9 @@
         <v>0.95213009283217986</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.093868868564098207</v>
+        <v>9.3868868564098207E-2</v>
       </c>
       <c r="B197">
         <v>0.79497103229468247</v>
@@ -3087,9 +3108,9 @@
         <v>0.95306556571795076</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.086768400290667486</v>
+        <v>8.6768400290667486E-2</v>
       </c>
       <c r="B198">
         <v>0.80776728017419475</v>
@@ -3101,9 +3122,9 @@
         <v>0.95666459047025854</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.088555714545001746</v>
+        <v>8.8555714545001746E-2</v>
       </c>
       <c r="B199">
         <v>0.82312063920424994</v>
@@ -3115,9 +3136,9 @@
         <v>0.95572777067249726</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.022055553908635461</v>
+        <v>2.2055553908635461E-2</v>
       </c>
       <c r="B200">
         <v>0.94372475111356791</v>
@@ -3129,9 +3150,9 @@
         <v>0.98897222304568233</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.0098203452762063471</v>
+        <v>9.8203452762063471E-3</v>
       </c>
       <c r="B201">
         <v>0.66240914997249112</v>
@@ -3143,9 +3164,9 @@
         <v>0.99508982736189688</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.029207695224998838</v>
+        <v>2.9207695224998838E-2</v>
       </c>
       <c r="B202">
         <v>0.7994240733229997</v>
@@ -3157,9 +3178,9 @@
         <v>0.98539615238750067</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>0.098097320172667174</v>
+        <v>9.8097320172667174E-2</v>
       </c>
       <c r="B203">
         <v>0.802440178621876</v>
@@ -3171,9 +3192,9 @@
         <v>0.95095133991366643</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0.087728297593038629</v>
+        <v>8.7728297593038629E-2</v>
       </c>
       <c r="B204">
         <v>0.82397113363403052</v>
@@ -3185,7 +3206,7 @@
         <v>0.95613585120348077</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.10053264155793937</v>
       </c>
@@ -3199,9 +3220,9 @@
         <v>0.94973367922103025</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>0.044943848485229573</v>
+        <v>4.4943848485229573E-2</v>
       </c>
       <c r="B206">
         <v>0.72475750204389544</v>
@@ -3213,9 +3234,9 @@
         <v>0.97752807575738521</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.0098004541673882457</v>
+        <v>9.8004541673882457E-3</v>
       </c>
       <c r="B207">
         <v>0.6591302301620523</v>
@@ -3227,9 +3248,9 @@
         <v>0.9950997729163058</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.09407805919925849</v>
+        <v>9.407805919925849E-2</v>
       </c>
       <c r="B208">
         <v>0.78885950740298649</v>
@@ -3241,9 +3262,9 @@
         <v>0.95296097040037075</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0.00026804725413689864</v>
+        <v>2.6804725413689864E-4</v>
       </c>
       <c r="B209">
         <v>0.56629950136443652</v>
@@ -3255,9 +3276,9 @@
         <v>0.99986597637293151</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>0.0029937171743835015</v>
+        <v>2.9937171743835015E-3</v>
       </c>
       <c r="B210">
         <v>0.61301059305591277</v>
@@ -3269,9 +3290,9 @@
         <v>0.99850314141280816</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>0.00039207717226293076</v>
+        <v>3.9207717226293076E-4</v>
       </c>
       <c r="B211">
         <v>0.58566245443139486</v>
@@ -3283,9 +3304,9 @@
         <v>0.99980396141386851</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>0.05416050759794809</v>
+        <v>5.416050759794809E-2</v>
       </c>
       <c r="B212">
         <v>0.74924061855667767</v>
@@ -3297,9 +3318,9 @@
         <v>0.97291974620102595</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.00025943657885079839</v>
+        <v>2.5943657885079839E-4</v>
       </c>
       <c r="B213">
         <v>0.56308863397913256</v>
@@ -3311,9 +3332,9 @@
         <v>0.99987028171057457</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.010268282319154859</v>
+        <v>1.0268282319154859E-2</v>
       </c>
       <c r="B214">
         <v>0.72797677199727318</v>
@@ -3325,9 +3346,9 @@
         <v>0.99486585884042256</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.062913270257943327</v>
+        <v>6.2913270257943327E-2</v>
       </c>
       <c r="B215">
         <v>0.78929587724280781</v>
@@ -3339,9 +3360,9 @@
         <v>0.96854336487102832</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.096129840366851099</v>
+        <v>9.6129840366851099E-2</v>
       </c>
       <c r="B216">
         <v>0.76279230752498328</v>
@@ -3353,9 +3374,9 @@
         <v>0.95193507981657455</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>4.4504649345086273e-05</v>
+        <v>4.4504649345086273E-5</v>
       </c>
       <c r="B217">
         <v>0.4666444134135192</v>
@@ -3367,9 +3388,9 @@
         <v>0.99997774767532732</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.0049735384143119836</v>
+        <v>4.9735384143119836E-3</v>
       </c>
       <c r="B218">
         <v>0.55926758880859773</v>
@@ -3381,9 +3402,9 @@
         <v>0.99751323079284393</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.056209057135841192</v>
+        <v>5.6209057135841192E-2</v>
       </c>
       <c r="B219">
         <v>0.69167246348193179</v>
@@ -3395,9 +3416,9 @@
         <v>0.97189547143207933</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0.094559260189384431</v>
+        <v>9.4559260189384431E-2</v>
       </c>
       <c r="B220">
         <v>0.80916153855555006</v>
@@ -3409,9 +3430,9 @@
         <v>0.95272036990530773</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.068596085501281934</v>
+        <v>6.8596085501281934E-2</v>
       </c>
       <c r="B221">
         <v>0.76022495266613932</v>
@@ -3423,9 +3444,9 @@
         <v>0.96570195724935903</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>0.081399618028772464</v>
+        <v>8.1399618028772464E-2</v>
       </c>
       <c r="B222">
         <v>0.76599053926945027</v>
@@ -3437,9 +3458,9 @@
         <v>0.96009596437629896</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>0.001685589058456989</v>
+        <v>1.685589058456989E-3</v>
       </c>
       <c r="B223">
         <v>0.19955711781335342</v>
@@ -3451,7 +3472,7 @@
         <v>0.99915720547077136</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.13227444747591363</v>
       </c>
@@ -3465,7 +3486,7 @@
         <v>0.93386277626204328</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.12664189965174291</v>
       </c>
@@ -3479,9 +3500,9 @@
         <v>0.93667905017412856</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.060503067300625449</v>
+        <v>6.0503067300625449E-2</v>
       </c>
       <c r="B226">
         <v>0.57646188546682031</v>
@@ -3493,9 +3514,9 @@
         <v>0.97173283736557126</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.053450286305042088</v>
+        <v>5.3450286305042088E-2</v>
       </c>
       <c r="B227">
         <v>0.5573955138743022</v>
@@ -3507,9 +3528,9 @@
         <v>0.97327485684747894</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0.0029759171607913605</v>
+        <v>2.9759171607913605E-3</v>
       </c>
       <c r="B228">
         <v>0.36378122773310251</v>
@@ -3521,9 +3542,9 @@
         <v>0.99851204141960426</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>0.022943468433103156</v>
+        <v>2.2943468433103156E-2</v>
       </c>
       <c r="B229">
         <v>0.4529614213099547</v>
@@ -3535,7 +3556,7 @@
         <v>0.98852826578344832</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.104816247481505</v>
       </c>
@@ -3549,9 +3570,9 @@
         <v>0.94759187625924757</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>0.093305398871877526</v>
+        <v>9.3305398871877526E-2</v>
       </c>
       <c r="B231">
         <v>0.81334573831979895</v>
@@ -3563,7 +3584,7 @@
         <v>0.95334730056406114</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.10536475391991332</v>
       </c>
@@ -3577,9 +3598,9 @@
         <v>0.9473176230400433</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>0.059188278951086845</v>
+        <v>5.9188278951086845E-2</v>
       </c>
       <c r="B233">
         <v>0.72997129218176249</v>
@@ -3591,7 +3612,7 @@
         <v>0.97040586052445654</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.10928766941189977</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>0.94535616529405009</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.16040356464259908</v>
       </c>
@@ -3619,9 +3640,9 @@
         <v>0.91979821767870051</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>0.097866265878243111</v>
+        <v>9.7866265878243111E-2</v>
       </c>
       <c r="B236">
         <v>0.75408607628203272</v>
@@ -3633,9 +3654,9 @@
         <v>0.9510668670608784</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>0.090115655055785643</v>
+        <v>9.0115655055785643E-2</v>
       </c>
       <c r="B237">
         <v>0.81804439496126535</v>
@@ -3647,7 +3668,7 @@
         <v>0.95531324771333881</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.12002805431234137</v>
       </c>
@@ -3661,9 +3682,9 @@
         <v>0.93998597284382945</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.063541923442617179</v>
+        <v>6.3541923442617179E-2</v>
       </c>
       <c r="B239">
         <v>0.76651924038855945</v>
@@ -3675,7 +3696,7 @@
         <v>0.96822903827869133</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.1051010438344217</v>
       </c>
@@ -3689,9 +3710,9 @@
         <v>0.94744947808278912</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.013051781524526655</v>
+        <v>1.3051781524526655E-2</v>
       </c>
       <c r="B241">
         <v>0.48775188612356402</v>
@@ -3703,9 +3724,9 @@
         <v>0.9934741092377366</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>0.00474977835625224</v>
+        <v>4.74977835625224E-3</v>
       </c>
       <c r="B242">
         <v>0.42246791793671273</v>
@@ -3717,9 +3738,9 @@
         <v>0.99762511082187388</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.043807043395816911</v>
+        <v>4.3807043395816911E-2</v>
       </c>
       <c r="B243">
         <v>0.63955243530611416</v>
@@ -3731,9 +3752,9 @@
         <v>0.97809647830209157</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0.0030260508815813554</v>
+        <v>3.0260508815813554E-3</v>
       </c>
       <c r="B244">
         <v>0.43056889582411922</v>
@@ -3745,9 +3766,9 @@
         <v>0.99848697455920932</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.0080196290965108864</v>
+        <v>8.0196290965108864E-3</v>
       </c>
       <c r="B245">
         <v>0.42879486682601997</v>
@@ -3759,9 +3780,9 @@
         <v>0.99599018545174456</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.013050589363262083</v>
+        <v>1.3050589363262083E-2</v>
       </c>
       <c r="B246">
         <v>0.48881128426767118</v>
@@ -3773,9 +3794,9 @@
         <v>0.99347470531836901</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>0.0029839515781009676</v>
+        <v>2.9839515781009676E-3</v>
       </c>
       <c r="B247">
         <v>0.35388316289508948</v>
@@ -3787,9 +3808,9 @@
         <v>0.99850802421094953</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.0068662333760298559</v>
+        <v>6.8662333760298559E-3</v>
       </c>
       <c r="B248">
         <v>0.62266128217573768</v>
@@ -3801,9 +3822,9 @@
         <v>0.99723935354302085</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.0034078914300075397</v>
+        <v>3.4078914300075397E-3</v>
       </c>
       <c r="B249">
         <v>0.37474819026163647</v>
@@ -3815,9 +3836,9 @@
         <v>0.99829605428499635</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>0.0070686816321872802</v>
+        <v>7.0686816321872802E-3</v>
       </c>
       <c r="B250">
         <v>0.48464199547886005</v>
@@ -3829,9 +3850,9 @@
         <v>0.99646565918390639</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.011682204438577676</v>
+        <v>1.1682204438577676E-2</v>
       </c>
       <c r="B251">
         <v>0.46320044492411455</v>
@@ -3843,9 +3864,9 @@
         <v>0.99415889778071109</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.0051911048661729261</v>
+        <v>5.1911048661729261E-3</v>
       </c>
       <c r="B252">
         <v>0.39919957235451009</v>
@@ -3857,9 +3878,9 @@
         <v>0.9974044475669136</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.0074053832490777426</v>
+        <v>7.4053832490777426E-3</v>
       </c>
       <c r="B253">
         <v>0.47924407309589728</v>
@@ -3871,9 +3892,9 @@
         <v>0.99629730837546115</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.02467289719626168</v>
+        <v>2.467289719626168E-2</v>
       </c>
       <c r="B254">
         <v>0.54240296996477433</v>
@@ -3885,9 +3906,9 @@
         <v>0.98766355140186912</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.012128735377718389</v>
+        <v>1.2128735377718389E-2</v>
       </c>
       <c r="B255">
         <v>0.47562084142191507</v>
@@ -3899,9 +3920,9 @@
         <v>0.9939356323111409</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>0.0035468706793252832</v>
+        <v>3.5468706793252832E-3</v>
       </c>
       <c r="B256">
         <v>0.3831319226133218</v>
@@ -3913,9 +3934,9 @@
         <v>0.99822656466033732</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.0064208292204495209</v>
+        <v>6.4208292204495209E-3</v>
       </c>
       <c r="B257">
         <v>0.43926886121155606</v>
@@ -3927,9 +3948,9 @@
         <v>0.99678958538977525</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.00062947693701000942</v>
+        <v>6.2947693701000942E-4</v>
       </c>
       <c r="B258">
         <v>0.45087920298415735</v>
@@ -3941,9 +3962,9 @@
         <v>0.99968526153149495</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>0.0029040418897452493</v>
+        <v>2.9040418897452493E-3</v>
       </c>
       <c r="B259">
         <v>0.40068098687095344</v>
@@ -3955,9 +3976,9 @@
         <v>0.99854797905512738</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.0016114097430162224</v>
+        <v>1.6114097430162224E-3</v>
       </c>
       <c r="B260">
         <v>0.46233470731836157</v>
@@ -3969,9 +3990,9 @@
         <v>0.99919429512849189</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.013408005270960303</v>
+        <v>1.3408005270960303E-2</v>
       </c>
       <c r="B261">
         <v>0.77641556523625532</v>
@@ -3983,9 +4004,9 @@
         <v>0.9932959973645199</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.01483885242274504</v>
+        <v>1.483885242274504E-2</v>
       </c>
       <c r="B262">
         <v>0.61357221713309429</v>
@@ -3997,9 +4018,9 @@
         <v>0.99258057378862752</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.035250929156121033</v>
+        <v>3.5250929156121033E-2</v>
       </c>
       <c r="B263">
         <v>0.60080579131150091</v>
@@ -4011,9 +4032,9 @@
         <v>0.98237453542193953</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.034401614163227942</v>
+        <v>3.4401614163227942E-2</v>
       </c>
       <c r="B264">
         <v>0.63523924217386896</v>
@@ -4025,9 +4046,9 @@
         <v>0.98279919291838602</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.050608553422812334</v>
+        <v>5.0608553422812334E-2</v>
       </c>
       <c r="B265">
         <v>0.64275873237849501</v>
@@ -4039,9 +4060,9 @@
         <v>0.97469572328859388</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.053619833892389002</v>
+        <v>5.3619833892389002E-2</v>
       </c>
       <c r="B266">
         <v>0.8421765057147067</v>
@@ -4053,9 +4074,9 @@
         <v>0.9731900830538055</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.049073288973839391</v>
+        <v>4.9073288973839391E-2</v>
       </c>
       <c r="B267">
         <v>0.64298029900101705</v>
@@ -4067,9 +4088,9 @@
         <v>0.97546335551308028</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.029891984718208836</v>
+        <v>2.9891984718208836E-2</v>
       </c>
       <c r="B268">
         <v>0.92323145442091492</v>
@@ -4081,9 +4102,9 @@
         <v>0.98505400764089557</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.010621015686555404</v>
+        <v>1.0621015686555404E-2</v>
       </c>
       <c r="B269">
         <v>0.87232280929664352</v>
@@ -4095,9 +4116,9 @@
         <v>0.99468949215672231</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0.0042762150843119722</v>
+        <v>4.2762150843119722E-3</v>
       </c>
       <c r="B270">
         <v>0.83916724957195443</v>
@@ -4109,9 +4130,9 @@
         <v>0.99786189245784407</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0.0018004412614887268</v>
+        <v>1.8004412614887268E-3</v>
       </c>
       <c r="B271">
         <v>0.80659646399138218</v>
@@ -4123,9 +4144,9 @@
         <v>0.99909977936925565</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.0024001645274071204</v>
+        <v>2.4001645274071204E-3</v>
       </c>
       <c r="B272">
         <v>0.81929078436745661</v>
@@ -4137,9 +4158,9 @@
         <v>0.99879991773629639</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.059809376436102679</v>
+        <v>5.9809376436102679E-2</v>
       </c>
       <c r="B273">
         <v>0.82058181061106528</v>
@@ -4151,9 +4172,9 @@
         <v>0.97009531178194874</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.070505618745370105</v>
+        <v>7.0505618745370105E-2</v>
       </c>
       <c r="B274">
         <v>0.81951683310291223</v>
@@ -4165,9 +4186,9 @@
         <v>0.96474719062731495</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.018908360308070096</v>
+        <v>1.8908360308070096E-2</v>
       </c>
       <c r="B275">
         <v>0.94843978099004367</v>
@@ -4179,9 +4200,9 @@
         <v>0.9905458198459649</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.026891375827546041</v>
+        <v>2.6891375827546041E-2</v>
       </c>
       <c r="B276">
         <v>0.94452354520581727</v>
@@ -4193,9 +4214,9 @@
         <v>0.98655431208622701</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>0.059862110220263512</v>
+        <v>5.9862110220263512E-2</v>
       </c>
       <c r="B277">
         <v>0.8506293832461963</v>
@@ -4207,9 +4228,9 @@
         <v>0.97006894488986828</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.0047678613513170535</v>
+        <v>4.7678613513170535E-3</v>
       </c>
       <c r="B278">
         <v>0.75423886810991347</v>
@@ -4221,9 +4242,9 @@
         <v>0.99932923623574632</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B279">
         <v>0.29443519010170832</v>
@@ -4235,9 +4256,9 @@
         <v>0.99980680372868802</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.0047192071731949033</v>
+        <v>4.7192071731949033E-3</v>
       </c>
       <c r="B280">
         <v>0.56257349551754354</v>
@@ -4249,9 +4270,9 @@
         <v>0.99764039641340252</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.013408005270960303</v>
+        <v>1.3408005270960303E-2</v>
       </c>
       <c r="B281">
         <v>0.77641556523625532</v>
@@ -4263,9 +4284,9 @@
         <v>0.9932959973645199</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>0.01483885242274504</v>
+        <v>1.483885242274504E-2</v>
       </c>
       <c r="B282">
         <v>0.61357221713309429</v>
@@ -4277,9 +4298,9 @@
         <v>0.99258057378862752</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>0.035250929156121033</v>
+        <v>3.5250929156121033E-2</v>
       </c>
       <c r="B283">
         <v>0.60080579131150091</v>
@@ -4291,9 +4312,9 @@
         <v>0.98237453542193953</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>0.034401614163227942</v>
+        <v>3.4401614163227942E-2</v>
       </c>
       <c r="B284">
         <v>0.63523924217386896</v>
@@ -4305,9 +4326,9 @@
         <v>0.98279919291838602</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>0.050608553422812334</v>
+        <v>5.0608553422812334E-2</v>
       </c>
       <c r="B285">
         <v>0.64275873237849501</v>
@@ -4319,9 +4340,9 @@
         <v>0.97469572328859388</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>0.053619833892389002</v>
+        <v>5.3619833892389002E-2</v>
       </c>
       <c r="B286">
         <v>0.8421765057147067</v>
@@ -4333,9 +4354,9 @@
         <v>0.9731900830538055</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>0.049073288973839391</v>
+        <v>4.9073288973839391E-2</v>
       </c>
       <c r="B287">
         <v>0.64298029900101705</v>
@@ -4347,9 +4368,9 @@
         <v>0.97546335551308028</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>0.029891984718208836</v>
+        <v>2.9891984718208836E-2</v>
       </c>
       <c r="B288">
         <v>0.92323145442091492</v>
@@ -4361,9 +4382,9 @@
         <v>0.98505400764089557</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>0.010621015686555404</v>
+        <v>1.0621015686555404E-2</v>
       </c>
       <c r="B289">
         <v>0.87232280929664352</v>
@@ -4375,9 +4396,9 @@
         <v>0.99468949215672231</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.0042762150843119722</v>
+        <v>4.2762150843119722E-3</v>
       </c>
       <c r="B290">
         <v>0.83916724957195443</v>
@@ -4389,9 +4410,9 @@
         <v>0.99786189245784407</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>0.0018004412614887268</v>
+        <v>1.8004412614887268E-3</v>
       </c>
       <c r="B291">
         <v>0.80659646399138218</v>
@@ -4403,9 +4424,9 @@
         <v>0.99909977936925565</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>0.0024001645274071204</v>
+        <v>2.4001645274071204E-3</v>
       </c>
       <c r="B292">
         <v>0.81929078436745661</v>
@@ -4417,9 +4438,9 @@
         <v>0.99879991773629639</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.059809376436102679</v>
+        <v>5.9809376436102679E-2</v>
       </c>
       <c r="B293">
         <v>0.82058181061106528</v>
@@ -4431,9 +4452,9 @@
         <v>0.97009531178194874</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>0.070505618745370105</v>
+        <v>7.0505618745370105E-2</v>
       </c>
       <c r="B294">
         <v>0.81951683310291223</v>
@@ -4445,9 +4466,9 @@
         <v>0.96474719062731495</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>0.018908360308070096</v>
+        <v>1.8908360308070096E-2</v>
       </c>
       <c r="B295">
         <v>0.94843978099004367</v>
@@ -4459,9 +4480,9 @@
         <v>0.9905458198459649</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0.026891375827546041</v>
+        <v>2.6891375827546041E-2</v>
       </c>
       <c r="B296">
         <v>0.94452354520581727</v>
@@ -4473,9 +4494,9 @@
         <v>0.98655431208622701</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>0.059862110220263512</v>
+        <v>5.9862110220263512E-2</v>
       </c>
       <c r="B297">
         <v>0.8506293832461963</v>
@@ -4487,9 +4508,9 @@
         <v>0.97006894488986828</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0.0047678613513170535</v>
+        <v>4.7678613513170535E-3</v>
       </c>
       <c r="B298">
         <v>0.75423886810991347</v>
@@ -4501,9 +4522,9 @@
         <v>0.99932923623574632</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B299">
         <v>0.29443519010170832</v>
@@ -4515,9 +4536,9 @@
         <v>0.99980680372868802</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>0.0047192071731949033</v>
+        <v>4.7192071731949033E-3</v>
       </c>
       <c r="B300">
         <v>0.56257349551754354</v>
@@ -4529,9 +4550,9 @@
         <v>0.99764039641340252</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>3.0928632181241783e-05</v>
+        <v>3.0928632181241783E-5</v>
       </c>
       <c r="B301">
         <v>0.44442897969788075</v>
@@ -4543,9 +4564,9 @@
         <v>0.99998453568390933</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.0035969790995843335</v>
+        <v>3.5969790995843335E-3</v>
       </c>
       <c r="B302">
         <v>0.71150878230441972</v>
@@ -4557,9 +4578,9 @@
         <v>0.99853345822844108</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>0.0052173575983099794</v>
+        <v>5.2173575983099794E-3</v>
       </c>
       <c r="B303">
         <v>0.66171037749135397</v>
@@ -4571,9 +4592,9 @@
         <v>0.99739132120084506</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0.00030784952822853227</v>
+        <v>3.0784952822853227E-4</v>
       </c>
       <c r="B304">
         <v>0.69719886804743192</v>
@@ -4585,9 +4606,9 @@
         <v>0.99984607523588587</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0.023190527812583593</v>
+        <v>2.3190527812583593E-2</v>
       </c>
       <c r="B305">
         <v>0.89136465679825638</v>
@@ -4599,9 +4620,9 @@
         <v>0.98840473609370827</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>0.0002038106938338773</v>
+        <v>2.038106938338773E-4</v>
       </c>
       <c r="B306">
         <v>0.73124133956634474</v>
@@ -4613,9 +4634,9 @@
         <v>0.99989809465308299</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>0.0014378203618108413</v>
+        <v>1.4378203618108413E-3</v>
       </c>
       <c r="B307">
         <v>0.93556977627651572</v>
@@ -4627,10 +4648,13 @@
         <v>0.99928108981909458</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0</v>
       </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
       <c r="C308">
         <v>1</v>
       </c>
@@ -4638,12 +4662,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0.00011455409817286213</v>
+        <v>1.1455409817286213E-4</v>
       </c>
       <c r="B309">
-        <v>-5.7280329934700431e-05</v>
+        <v>-5.7280329934700431E-5</v>
       </c>
       <c r="C309">
         <v>0.99977091148761632</v>
@@ -4652,9 +4676,9 @@
         <v>0.99994272295091369</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0.0006312594840667678</v>
+        <v>6.312594840667678E-4</v>
       </c>
       <c r="B310">
         <v>0.66776917621164733</v>
@@ -4666,9 +4690,9 @@
         <v>0.99968437025796664</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0.0069353474043898824</v>
+        <v>6.9353474043898824E-3</v>
       </c>
       <c r="B311">
         <v>0.85182103872211179</v>
@@ -4680,9 +4704,9 @@
         <v>0.99653232629780497</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.003716410372511799</v>
+        <v>3.716410372511799E-3</v>
       </c>
       <c r="B312">
         <v>0.78536385157565047</v>
@@ -4694,9 +4718,9 @@
         <v>0.9981417948137441</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>0.00025916003977543217</v>
+        <v>2.5916003977543217E-4</v>
       </c>
       <c r="B313">
         <v>0.57824193212463149</v>
@@ -4708,9 +4732,9 @@
         <v>0.99987041998011228</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0.00013463253731845645</v>
+        <v>1.3463253731845645E-4</v>
       </c>
       <c r="B314">
         <v>0.48711216207328178</v>
@@ -4722,9 +4746,9 @@
         <v>0.99993268373134081</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>0.00016470764393202065</v>
+        <v>1.6470764393202065E-4</v>
       </c>
       <c r="B315">
         <v>0.69614592310756251</v>
@@ -4736,9 +4760,9 @@
         <v>0.99991764617803403</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>0.00061752900180847775</v>
+        <v>6.1752900180847775E-4</v>
       </c>
       <c r="B316">
         <v>0.68995641412009323</v>
@@ -4750,9 +4774,9 @@
         <v>0.99969123549909578</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>0.0016044383016150701</v>
+        <v>1.6044383016150701E-3</v>
       </c>
       <c r="B317">
         <v>0.68872188720058691</v>
@@ -4764,9 +4788,9 @@
         <v>0.99919778084919231</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0.00038345191938988539</v>
+        <v>3.8345191938988539E-4</v>
       </c>
       <c r="B318">
         <v>0.75473954800285337</v>
@@ -4778,9 +4802,9 @@
         <v>0.99980827404030492</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>0.00017812994272200979</v>
+        <v>1.7812994272200979E-4</v>
       </c>
       <c r="B319">
         <v>0.40807418692943759</v>
@@ -4792,9 +4816,9 @@
         <v>0.99991093502863893</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0.0034369178766607859</v>
+        <v>3.4369178766607859E-3</v>
       </c>
       <c r="B320">
         <v>0.61375783087184477</v>
@@ -4806,9 +4830,9 @@
         <v>0.99921417204327612</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.052306779409583143</v>
+        <v>5.2306779409583143E-2</v>
       </c>
       <c r="B321">
         <v>0.89513469286264491</v>
@@ -4820,9 +4844,9 @@
         <v>0.97384661029520847</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>0.052240352240352242</v>
+        <v>5.2240352240352242E-2</v>
       </c>
       <c r="B322">
         <v>0.85322760877424886</v>
@@ -4834,9 +4858,9 @@
         <v>0.97387982387982386</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.034253918161934405</v>
+        <v>3.4253918161934405E-2</v>
       </c>
       <c r="B323">
         <v>0.84366526421728461</v>
@@ -4848,9 +4872,9 @@
         <v>0.98287304091903283</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>0.020101013771301916</v>
+        <v>2.0101013771301916E-2</v>
       </c>
       <c r="B324">
         <v>0.8758318184042122</v>
@@ -4862,9 +4886,9 @@
         <v>0.9899494931143491</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>0.051520093185789165</v>
+        <v>5.1520093185789165E-2</v>
       </c>
       <c r="B325">
         <v>0.88954580207336209</v>
@@ -4876,9 +4900,9 @@
         <v>0.97423995340710556</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>0.0089004667317920325</v>
+        <v>8.9004667317920325E-3</v>
       </c>
       <c r="B326">
         <v>0.74087298679697844</v>
@@ -4890,9 +4914,9 @@
         <v>0.99554976663410399</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.026767697425828969</v>
+        <v>2.6767697425828969E-2</v>
       </c>
       <c r="B327">
         <v>0.84939678435569954</v>
@@ -4904,9 +4928,9 @@
         <v>0.98661615128708557</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.030976884975233904</v>
+        <v>3.0976884975233904E-2</v>
       </c>
       <c r="B328">
         <v>0.77116808244027246</v>
@@ -4918,9 +4942,9 @@
         <v>0.98639687671986787</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>0.029029585914830208</v>
+        <v>2.9029585914830208E-2</v>
       </c>
       <c r="B329">
         <v>0.7467178009616936</v>
@@ -4932,9 +4956,9 @@
         <v>0.99550188465610534</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>0.043509031646473698</v>
+        <v>4.3509031646473698E-2</v>
       </c>
       <c r="B330">
         <v>0.89900043791692286</v>
@@ -4946,9 +4970,9 @@
         <v>0.97824548417676316</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.049159560004943766</v>
+        <v>4.9159560004943766E-2</v>
       </c>
       <c r="B331">
         <v>0.89740541830870546</v>
@@ -4960,9 +4984,9 @@
         <v>0.97688017550364592</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.058909671484610418</v>
+        <v>5.8909671484610418E-2</v>
       </c>
       <c r="B332">
         <v>0.88217447944815552</v>
@@ -4974,9 +4998,9 @@
         <v>0.97054516425769477</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.035077288941736021</v>
+        <v>3.5077288941736021E-2</v>
       </c>
       <c r="B333">
         <v>0.90094058776985841</v>
@@ -4988,9 +5012,9 @@
         <v>0.98426209640537821</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>0.06105238942767547</v>
+        <v>6.105238942767547E-2</v>
       </c>
       <c r="B334">
         <v>0.87779693816400128</v>
@@ -5002,9 +5026,9 @@
         <v>0.96947380528616223</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0.017572316842389836</v>
+        <v>1.7572316842389836E-2</v>
       </c>
       <c r="B335">
         <v>0.90723973079036357</v>
@@ -5016,9 +5040,9 @@
         <v>0.99121384157880499</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>0.038250775109957461</v>
+        <v>3.8250775109957461E-2</v>
       </c>
       <c r="B336">
         <v>0.86609627941572664</v>
@@ -5030,9 +5054,9 @@
         <v>0.98456539764943385</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.045811287477954141</v>
+        <v>4.5811287477954141E-2</v>
       </c>
       <c r="B337">
         <v>0.86590289959669386</v>
@@ -5044,9 +5068,9 @@
         <v>0.97709435626102303</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>0.051332381632167495</v>
+        <v>5.1332381632167495E-2</v>
       </c>
       <c r="B338">
         <v>0.86784594336480314</v>
@@ -5058,9 +5082,9 @@
         <v>0.97714430168926947</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0.04076746197498049</v>
+        <v>4.076746197498049E-2</v>
       </c>
       <c r="B339">
         <v>0.86519201271480117</v>
@@ -5072,9 +5096,9 @@
         <v>0.97961626901250975</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0.053510865469162165</v>
+        <v>5.3510865469162165E-2</v>
       </c>
       <c r="B340">
         <v>0.86107653814547525</v>
@@ -5086,9 +5110,9 @@
         <v>0.97324456726541886</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0.09006703229737964</v>
+        <v>9.006703229737964E-2</v>
       </c>
       <c r="B341">
         <v>0.80451831931724016</v>
@@ -5100,9 +5124,9 @@
         <v>0.95496648385131011</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>0.090435039440248915</v>
+        <v>9.0435039440248915E-2</v>
       </c>
       <c r="B342">
         <v>0.78705095712996831</v>
@@ -5114,9 +5138,9 @@
         <v>0.95478248027987545</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>0.078412787867920178</v>
+        <v>7.8412787867920178E-2</v>
       </c>
       <c r="B343">
         <v>0.79887327702919653</v>
@@ -5128,9 +5152,9 @@
         <v>0.96079360606603992</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>0.082008485495409539</v>
+        <v>8.2008485495409539E-2</v>
       </c>
       <c r="B344">
         <v>0.81213425019392427</v>
@@ -5142,9 +5166,9 @@
         <v>0.95899575725229513</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0.043355090538851795</v>
+        <v>4.3355090538851795E-2</v>
       </c>
       <c r="B345">
         <v>0.75091459834132324</v>
@@ -5156,9 +5180,9 @@
         <v>0.97832245473057411</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.0032626494019837235</v>
+        <v>3.2626494019837235E-3</v>
       </c>
       <c r="B346">
         <v>0.45372006483460131</v>
@@ -5170,9 +5194,9 @@
         <v>0.99836867529900808</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0.023242037616288722</v>
+        <v>2.3242037616288722E-2</v>
       </c>
       <c r="B347">
         <v>0.72472954760729091</v>
@@ -5184,9 +5208,9 @@
         <v>0.98837898119185574</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>0.030377692597022242</v>
+        <v>3.0377692597022242E-2</v>
       </c>
       <c r="B348">
         <v>0.73111206807551532</v>
@@ -5198,9 +5222,9 @@
         <v>0.98481115370148897</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.017776358320844843</v>
+        <v>1.7776358320844843E-2</v>
       </c>
       <c r="B349">
         <v>0.66729251579420967</v>
@@ -5212,9 +5236,9 @@
         <v>0.99169222859028039</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.0018252137730279182</v>
+        <v>1.8252137730279182E-3</v>
       </c>
       <c r="B350">
         <v>0.41777828223065994</v>
@@ -5226,9 +5250,9 @@
         <v>0.99908739311348604</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0.00075028697885232121</v>
+        <v>7.5028697885232121E-4</v>
       </c>
       <c r="B351">
         <v>0.34602303532125989</v>
@@ -5240,9 +5264,9 @@
         <v>0.99962485651057387</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>0.0014314238087387507</v>
+        <v>1.4314238087387507E-3</v>
       </c>
       <c r="B352">
         <v>0.50156828547029564</v>
@@ -5254,9 +5278,9 @@
         <v>0.99928428809563064</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>0.002121158076214256</v>
+        <v>2.121158076214256E-3</v>
       </c>
       <c r="B353">
         <v>0.47241311716975698</v>
@@ -5268,9 +5292,9 @@
         <v>0.99893942096189292</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>0.00088490651519045364</v>
+        <v>8.8490651519045364E-4</v>
       </c>
       <c r="B354">
         <v>0.48107265213962525</v>
@@ -5282,9 +5306,9 @@
         <v>0.99955754674240482</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>0.00037586510255942343</v>
+        <v>3.7586510255942343E-4</v>
       </c>
       <c r="B355">
         <v>0.27363295896053114</v>
@@ -5296,9 +5320,9 @@
         <v>0.99981206744872031</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>0.0035849112299886189</v>
+        <v>3.5849112299886189E-3</v>
       </c>
       <c r="B356">
         <v>0.45415447593518748</v>
@@ -5310,9 +5334,9 @@
         <v>0.99820754438500559</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>0.015545561530486036</v>
+        <v>1.5545561530486036E-2</v>
       </c>
       <c r="B357">
         <v>0.60293537599714631</v>
@@ -5324,9 +5348,9 @@
         <v>0.99222721923475699</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>0.015739098726223831</v>
+        <v>1.5739098726223831E-2</v>
       </c>
       <c r="B358">
         <v>0.61470323703745322</v>
@@ -5338,9 +5362,9 @@
         <v>0.99213045063688809</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>0.0022523035662558059</v>
+        <v>2.2523035662558059E-3</v>
       </c>
       <c r="B359">
         <v>0.39078740022829589</v>
@@ -5352,9 +5376,9 @@
         <v>0.99887384821687197</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0.0014431489137672071</v>
+        <v>1.4431489137672071E-3</v>
       </c>
       <c r="B360">
         <v>0.32195755212825022</v>
@@ -5366,9 +5390,9 @@
         <v>0.9992784255431163</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>0.031002942749041872</v>
+        <v>3.1002942749041872E-2</v>
       </c>
       <c r="B361">
         <v>0.89574810429768092</v>
@@ -5380,9 +5404,9 @@
         <v>0.98449852862547904</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.0041236496394050932</v>
+        <v>4.1236496394050932E-3</v>
       </c>
       <c r="B362">
         <v>0.9156736900333583</v>
@@ -5394,9 +5418,9 @@
         <v>0.99793817518029748</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>0.005867336554844187</v>
+        <v>5.867336554844187E-3</v>
       </c>
       <c r="B363">
         <v>0.90744518992539813</v>
@@ -5408,9 +5432,9 @@
         <v>0.99706633172257797</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.0074939209064845734</v>
+        <v>7.4939209064845734E-3</v>
       </c>
       <c r="B364">
         <v>0.92963805546481981</v>
@@ -5422,9 +5446,9 @@
         <v>0.9962530395467577</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0.0072032128514056219</v>
+        <v>7.2032128514056219E-3</v>
       </c>
       <c r="B365">
         <v>0.89953672379544924</v>
@@ -5436,9 +5460,9 @@
         <v>0.99639839357429716</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>0.01358527485869546</v>
+        <v>1.358527485869546E-2</v>
       </c>
       <c r="B366">
         <v>0.86753584795239214</v>
@@ -5450,9 +5474,9 @@
         <v>0.99320736257065223</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>0.0043615093619862036</v>
+        <v>4.3615093619862036E-3</v>
       </c>
       <c r="B367">
         <v>0.91197984968908563</v>
@@ -5464,9 +5488,9 @@
         <v>0.9978192453190069</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.010490092690236999</v>
+        <v>1.0490092690236999E-2</v>
       </c>
       <c r="B368">
         <v>0.78588265105704047</v>
@@ -5478,9 +5502,9 @@
         <v>0.99475495365488154</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.0060698088271329692</v>
+        <v>6.0698088271329692E-3</v>
       </c>
       <c r="B369">
         <v>0.95611318505268761</v>
@@ -5492,9 +5516,9 @@
         <v>0.99696509558643354</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0.0080243555847912523</v>
+        <v>8.0243555847912523E-3</v>
       </c>
       <c r="B370">
         <v>0.94785172209407453</v>
@@ -5506,9 +5530,9 @@
         <v>0.99598782220760429</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.012642991404161415</v>
+        <v>1.2642991404161415E-2</v>
       </c>
       <c r="B371">
         <v>0.9118225173965252</v>
@@ -5520,9 +5544,9 @@
         <v>0.99367850429791926</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>0.015380947718400517</v>
+        <v>1.5380947718400517E-2</v>
       </c>
       <c r="B372">
         <v>0.85413356840072729</v>
@@ -5534,9 +5558,9 @@
         <v>0.9923095261407997</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.03129403040415276</v>
+        <v>3.129403040415276E-2</v>
       </c>
       <c r="B373">
         <v>0.81794227425896271</v>
@@ -5548,9 +5572,9 @@
         <v>0.98435298479792355</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.056124916155802021</v>
+        <v>5.6124916155802021E-2</v>
       </c>
       <c r="B374">
         <v>0.82822050186205198</v>
@@ -5562,9 +5586,9 @@
         <v>0.97193754192209891</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.019218968064147086</v>
+        <v>1.9218968064147086E-2</v>
       </c>
       <c r="B375">
         <v>0.91739157676349814</v>
@@ -5576,9 +5600,9 @@
         <v>0.99039051596792649</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.040825249681579301</v>
+        <v>4.0825249681579301E-2</v>
       </c>
       <c r="B376">
         <v>0.84996387321149325</v>
@@ -5590,9 +5614,9 @@
         <v>0.97987317610177005</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>0.031032498064606291</v>
+        <v>3.1032498064606291E-2</v>
       </c>
       <c r="B377">
         <v>0.85214969060583035</v>
@@ -5604,9 +5628,9 @@
         <v>0.9844837509676968</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.035525889615174076</v>
+        <v>3.5525889615174076E-2</v>
       </c>
       <c r="B378">
         <v>0.87248776984925158</v>
@@ -5618,9 +5642,9 @@
         <v>0.98223705519241289</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.030718430132100176</v>
+        <v>3.0718430132100176E-2</v>
       </c>
       <c r="B379">
         <v>0.87438107039749136</v>
@@ -5632,9 +5656,9 @@
         <v>0.98464078493394991</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.0074800962784669503</v>
+        <v>7.4800962784669503E-3</v>
       </c>
       <c r="B380">
         <v>0.94454930177834628</v>
@@ -5646,9 +5670,9 @@
         <v>0.99625995186076655</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>0.031002942749041872</v>
+        <v>3.1002942749041872E-2</v>
       </c>
       <c r="B381">
         <v>0.89574810429768092</v>
@@ -5660,9 +5684,9 @@
         <v>0.98449852862547904</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>0.0041236496394050932</v>
+        <v>4.1236496394050932E-3</v>
       </c>
       <c r="B382">
         <v>0.9156736900333583</v>
@@ -5674,9 +5698,9 @@
         <v>0.99793817518029748</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.005867336554844187</v>
+        <v>5.867336554844187E-3</v>
       </c>
       <c r="B383">
         <v>0.90744518992539813</v>
@@ -5688,9 +5712,9 @@
         <v>0.99706633172257797</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.0074939209064845734</v>
+        <v>7.4939209064845734E-3</v>
       </c>
       <c r="B384">
         <v>0.92963805546481981</v>
@@ -5702,9 +5726,9 @@
         <v>0.9962530395467577</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.0072032128514056219</v>
+        <v>7.2032128514056219E-3</v>
       </c>
       <c r="B385">
         <v>0.89953672379544924</v>
@@ -5716,9 +5740,9 @@
         <v>0.99639839357429716</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.01358527485869546</v>
+        <v>1.358527485869546E-2</v>
       </c>
       <c r="B386">
         <v>0.86753584795239214</v>
@@ -5730,9 +5754,9 @@
         <v>0.99320736257065223</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.0043615093619862036</v>
+        <v>4.3615093619862036E-3</v>
       </c>
       <c r="B387">
         <v>0.91197984968908563</v>
@@ -5744,9 +5768,9 @@
         <v>0.9978192453190069</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.010490092690236999</v>
+        <v>1.0490092690236999E-2</v>
       </c>
       <c r="B388">
         <v>0.78588265105704047</v>
@@ -5758,9 +5782,9 @@
         <v>0.99475495365488154</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.0060698088271329692</v>
+        <v>6.0698088271329692E-3</v>
       </c>
       <c r="B389">
         <v>0.95611318505268761</v>
@@ -5772,9 +5796,9 @@
         <v>0.99696509558643354</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.0080243555847912523</v>
+        <v>8.0243555847912523E-3</v>
       </c>
       <c r="B390">
         <v>0.94785172209407453</v>
@@ -5786,9 +5810,9 @@
         <v>0.99598782220760429</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.012642991404161415</v>
+        <v>1.2642991404161415E-2</v>
       </c>
       <c r="B391">
         <v>0.9118225173965252</v>
@@ -5800,9 +5824,9 @@
         <v>0.99367850429791926</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.015380947718400517</v>
+        <v>1.5380947718400517E-2</v>
       </c>
       <c r="B392">
         <v>0.85413356840072729</v>
@@ -5814,9 +5838,9 @@
         <v>0.9923095261407997</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.03129403040415276</v>
+        <v>3.129403040415276E-2</v>
       </c>
       <c r="B393">
         <v>0.81794227425896271</v>
@@ -5828,9 +5852,9 @@
         <v>0.98435298479792355</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.056124916155802021</v>
+        <v>5.6124916155802021E-2</v>
       </c>
       <c r="B394">
         <v>0.82822050186205198</v>
@@ -5842,9 +5866,9 @@
         <v>0.97193754192209891</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.019218968064147086</v>
+        <v>1.9218968064147086E-2</v>
       </c>
       <c r="B395">
         <v>0.91739157676349814</v>
@@ -5856,9 +5880,9 @@
         <v>0.99039051596792649</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.040825249681579301</v>
+        <v>4.0825249681579301E-2</v>
       </c>
       <c r="B396">
         <v>0.84996387321149325</v>
@@ -5870,9 +5894,9 @@
         <v>0.97987317610177005</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.031032498064606291</v>
+        <v>3.1032498064606291E-2</v>
       </c>
       <c r="B397">
         <v>0.85214969060583035</v>
@@ -5884,9 +5908,9 @@
         <v>0.9844837509676968</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.035525889615174076</v>
+        <v>3.5525889615174076E-2</v>
       </c>
       <c r="B398">
         <v>0.87248776984925158</v>
@@ -5898,9 +5922,9 @@
         <v>0.98223705519241289</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>0.030718430132100176</v>
+        <v>3.0718430132100176E-2</v>
       </c>
       <c r="B399">
         <v>0.87438107039749136</v>
@@ -5912,9 +5936,9 @@
         <v>0.98464078493394991</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.0074800962784669503</v>
+        <v>7.4800962784669503E-3</v>
       </c>
       <c r="B400">
         <v>0.94454930177834628</v>
